--- a/src/test/resources/UAT_BS_TestData.xlsx
+++ b/src/test/resources/UAT_BS_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprakash01\ProjectFiles\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C54896-010F-4A17-A03E-212F1E1F31B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800764C7-4A3A-4508-A99B-C5D01AD8E07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="98">
   <si>
     <t>OrderId</t>
   </si>
@@ -272,9 +272,6 @@
     <t>01-02-2024</t>
   </si>
   <si>
-    <t>SOB23001713</t>
-  </si>
-  <si>
     <t>MA3JMTB1SRAA48021</t>
   </si>
   <si>
@@ -327,6 +324,12 @@
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>SOB23001685</t>
+  </si>
+  <si>
+    <t>Normal Rate</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -919,22 +922,22 @@
         <v>68</v>
       </c>
       <c r="AY1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>87</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>88</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>89</v>
       </c>
-      <c r="BB1" t="s">
-        <v>90</v>
-      </c>
       <c r="BC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD1" t="s">
         <v>94</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>95</v>
       </c>
       <c r="BE1" t="s">
         <v>70</v>
@@ -945,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2">
-        <v>9811526690</v>
+        <v>8989891587</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -988,7 +991,7 @@
         <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="R2">
         <v>121111</v>
@@ -1047,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="AN2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO2" t="s">
         <v>50</v>
@@ -1065,19 +1068,19 @@
         <v>72</v>
       </c>
       <c r="AT2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU2" t="s">
         <v>80</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AV2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AX2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY2">
         <v>247</v>
@@ -1106,13 +1109,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2">
-        <v>9811526690</v>
+        <v>8989891587</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -1208,7 +1211,7 @@
         <v>50</v>
       </c>
       <c r="AN3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO3" t="s">
         <v>50</v>
@@ -1226,19 +1229,19 @@
         <v>72</v>
       </c>
       <c r="AT3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU3" t="s">
         <v>80</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AV3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AX3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY3">
         <v>247</v>
@@ -1270,7 +1273,7 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2">
         <v>9811812699</v>
@@ -1307,7 +1310,7 @@
         <v>69</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q4" t="s">
         <v>74</v>
@@ -1369,7 +1372,7 @@
         <v>50</v>
       </c>
       <c r="AN4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
@@ -1387,19 +1390,19 @@
         <v>72</v>
       </c>
       <c r="AT4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU4" t="s">
         <v>80</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AV4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AX4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY4">
         <v>247</v>
@@ -1428,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2">
         <v>9811812699</v>
@@ -1530,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="AN5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO5" t="s">
         <v>50</v>
@@ -1548,19 +1551,19 @@
         <v>72</v>
       </c>
       <c r="AT5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU5" t="s">
         <v>80</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AV5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW5" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AX5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY5">
         <v>247</v>
@@ -1589,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>7589065023</v>
@@ -1691,7 +1694,7 @@
         <v>50</v>
       </c>
       <c r="AN6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO6" t="s">
         <v>50</v>
@@ -1709,19 +1712,19 @@
         <v>72</v>
       </c>
       <c r="AT6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU6" t="s">
         <v>80</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AV6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW6" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AX6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY6">
         <v>247</v>
